--- a/config/tfl_parameters.xlsx
+++ b/config/tfl_parameters.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
     <sheet name="Graph" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Table!$A$1:$F$16</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="110">
   <si>
     <t>Parameter</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,18 +59,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">column_select </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">text_input    </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">multi_column  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>demo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -171,10 +166,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AGE, SEX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ATOXGR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -448,6 +439,26 @@
   </si>
   <si>
     <t>AESCAT == "征集性局部不良事件"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE, SEX, ETHNIC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multi_column</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>column_select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>column_select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text_input</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -778,7 +789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -791,10 +802,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -806,138 +817,138 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="E6" t="s">
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
@@ -945,96 +956,96 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>26</v>
-      </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="E11" t="s">
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="E13" t="s">
         <v>4</v>
@@ -1042,65 +1053,66 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
         <v>28</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
-        <v>31</v>
-      </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F16"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1111,7 +1123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1125,10 +1137,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1140,18 +1152,18 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -1160,18 +1172,18 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -1180,115 +1192,115 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -1297,18 +1309,18 @@
         <v>3</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -1317,115 +1329,115 @@
         <v>6</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
@@ -1434,18 +1446,18 @@
         <v>3</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
@@ -1454,58 +1466,58 @@
         <v>6</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
@@ -1513,76 +1525,76 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B22" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" t="s">
-        <v>77</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D23" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E24" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F24" s="1" t="b">
         <v>0</v>
@@ -1590,19 +1602,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D25" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F25" s="1" t="b">
         <v>0</v>
@@ -1610,19 +1622,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D26" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E26" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F26" s="1" t="b">
         <v>0</v>
@@ -1630,19 +1642,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D27" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E27" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F27" s="1" t="b">
         <v>0</v>
@@ -1650,13 +1662,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
@@ -1665,18 +1677,18 @@
         <v>3</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
@@ -1685,107 +1697,107 @@
         <v>6</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="C30" t="s">
-        <v>76</v>
-      </c>
-      <c r="D30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" t="s">
-        <v>74</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E31" t="s">
         <v>4</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D32" t="s">
         <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C33" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C34" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
